--- a/mbs-perturbation/nano/svm/smote/nano-svm-default-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9137931034482759</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.8262910798122066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8217054263565892</v>
+        <v>0.88</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9107542450967486</v>
+        <v>0.979421701548857</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9127906976744186</v>
+        <v>0.895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7336448598130841</v>
+        <v>0.8364485981308412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8134715025906736</v>
+        <v>0.8647342995169083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87791233381598</v>
+        <v>0.9623974375850116</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6513409961685823</v>
+        <v>0.7459016393442623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7981220657276995</v>
+        <v>0.8544600938967136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7172995780590716</v>
+        <v>0.7964989059080965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8397584253565209</v>
+        <v>0.9118120302409134</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7203389830508474</v>
+        <v>0.5718390804597702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7981220657276995</v>
+        <v>0.9342723004694836</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7572383073496659</v>
+        <v>0.7094474153297684</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8090987237981881</v>
+        <v>0.7119398708369151</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4699738903394256</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8450704225352113</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6040268456375839</v>
+        <v>0.6950819672131148</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7913332892503693</v>
+        <v>0.6341665013555513</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.73364753413631</v>
+        <v>0.7375844456351286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7842876574086262</v>
+        <v>0.8893554473256987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7427483319987168</v>
+        <v>0.7891525175935776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8457714034635615</v>
+        <v>0.8399475083134498</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/smote/nano-svm-default-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.5193370165745856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8262910798122066</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>0.6762589928057554</v>
       </c>
       <c r="E2" t="n">
-        <v>0.979421701548857</v>
+        <v>0.7610532468912743</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.895</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8364485981308412</v>
+        <v>0.9533678756476683</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8647342995169083</v>
+        <v>0.9316455696202531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9623974375850116</v>
+        <v>0.9813311254740665</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7459016393442623</v>
+        <v>0.6958174904942965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8544600938967136</v>
+        <v>0.9481865284974094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7964989059080965</v>
+        <v>0.8026315789473685</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9118120302409134</v>
+        <v>0.9005127931200257</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5718390804597702</v>
+        <v>0.831858407079646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9342723004694836</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7094474153297684</v>
+        <v>0.8952380952380952</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7119398708369151</v>
+        <v>0.9258853693712943</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5340050377833753</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6950819672131148</v>
+        <v>0.8801955990220051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6341665013555513</v>
+        <v>0.9442337481972116</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7375844456351286</v>
+        <v>0.7590226611166042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8893554473256987</v>
+        <v>0.9535067571176754</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7891525175935776</v>
+        <v>0.8371939671266955</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8399475083134498</v>
+        <v>0.9026032566107745</v>
       </c>
     </row>
   </sheetData>
